--- a/biology/Histoire de la zoologie et de la botanique/Augustin_Sageret/Augustin_Sageret.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Augustin_Sageret/Augustin_Sageret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augustin Sageret (1763-1851) est un botaniste français pionnier de l'hybridation végétale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il participe à la fondation de la Société d'horticulture de Paris et est membre de la Société royale et centrale d'agriculture. Il conduit des recherches agronomiques à Lorris (Loiret), où il s’installe vers 1819. Il s’intéresse notamment à l’hybridation.
 En 1826, après avoir fait une expérience sur le croisement de melons, il constate que les hybrides obtenus ne sont pas intermédiaires entre les deux parents : pour chaque caractère il y a une étroite ressemblance soit avec l'un, soit avec l'autre parent. Il en vient à cette conclusion « que la ressemblance d'un hybride à ses deux parents consiste, en général, non en une fusion intime des divers caractères, mais en une distribution égale ou inégale des caractères inchangés : je dis égale ou inégale, car cette distribution est loin d'être la même chez tous les individus hybrides de même provenance, et il existe parmi eux une grande diversité » est le premier à utiliser le terme de « dominants » pour désigner la prépondérance de certains caractères. Il est aussi conscient de la possibilité d'une combinatoire des caractères : « On ne peut être assez admiratif devant la simplicité des moyens par lesquels la nature s'est dotée de la capacité de varier à l'infini ses productions et d'éviter la monotonie. Un petit nombre d'entre eux, l'union et la ségrégation des caractères, combinés de diverses façons, peuvent conduire à un nombre infini de variétés ». Il a écrit de très nombreux articles sur la pomme de terre, en particulier dans la Feuille du Cultivateur et dans les Annales de l’agriculture française.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire sur l’agriculture d’une partie du département du Loiret, et sur quelques tentatives d’amélioration, Paris : Mme Huzard, 1800, in-8°, 112 p. ; Paris, 1809, in-8°, 112 p. ; extrait des Mémoires de la Société d'agriculture du département de la Seine, en 1800, t. XI
 De la culture et des usages de la pomme de terre, 1814, in-4° ; extrait du tome V de la section ‘Agriculture’ de l’Encyclopédie méthodique
